--- a/target/test-classes/urunListesi.xlsx
+++ b/target/test-classes/urunListesi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetbulutluoz/Desktop/My Desktop/course/projeler/Team141_Cucumber/src/test/resources/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -75,6 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -440,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F45082-77CB-8547-A6D1-3DC7353AE3BC}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -448,87 +449,111 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.5"/>
+    <col min="2" max="2" customWidth="true" width="37.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>3</v>
       </c>
+      <c r="C2" t="n" s="0">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>5</v>
       </c>
+      <c r="C3" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>0</v>
       </c>
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>0</v>
       </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>2</v>
       </c>
+      <c r="C6" t="n" s="0">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>1</v>
       </c>
+      <c r="C7" t="n" s="0">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>0</v>
       </c>
+      <c r="C8" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>1</v>
       </c>
+      <c r="C9" t="n" s="0">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>3</v>
       </c>
     </row>

--- a/target/test-classes/urunListesi.xlsx
+++ b/target/test-classes/urunListesi.xlsx
@@ -441,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F45082-77CB-8547-A6D1-3DC7353AE3BC}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -471,6 +471,9 @@
       <c r="C2" t="n" s="0">
         <v>4.0</v>
       </c>
+      <c r="D2" t="n" s="0">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s" s="0">
@@ -482,6 +485,9 @@
       <c r="C3" t="n" s="0">
         <v>10.0</v>
       </c>
+      <c r="D3" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s" s="0">
@@ -493,6 +499,9 @@
       <c r="C4" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s" s="0">
@@ -504,6 +513,9 @@
       <c r="C5" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s" s="0">
@@ -515,6 +527,9 @@
       <c r="C6" t="n" s="0">
         <v>3.0</v>
       </c>
+      <c r="D6" t="n" s="0">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s" s="0">
@@ -526,6 +541,9 @@
       <c r="C7" t="n" s="0">
         <v>3.0</v>
       </c>
+      <c r="D7" t="n" s="0">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s" s="0">
@@ -537,6 +555,9 @@
       <c r="C8" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s" s="0">
@@ -546,6 +567,9 @@
         <v>1</v>
       </c>
       <c r="C9" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
         <v>4.0</v>
       </c>
     </row>
